--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>823340.1880631258</v>
+        <v>821452.6065467237</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>351.4907066044592</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>394.2087569650375</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.93165166918609</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>211.1829611305776</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4507677393637</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>66.12354205134248</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>264.8130802479735</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1184,22 +1184,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>195.2026164713287</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>82.92375604299494</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>9.764863467406547</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>23.47284014303606</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>185.5567217963122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532054</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.9052243575422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>164.3675597136118</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>213.0001531429326</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9.621991078756796</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>101.5008511078723</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404413</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>3.96438631159063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>43.97186549014324</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965507</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801189</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897884</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>123.0000062027155</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857176</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692858</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789577</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1576.102522773261</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C2" t="n">
-        <v>1576.102522773261</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>1576.102522773261</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.314270175017</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>779.3283653854096</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.568281034341</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.102522773261</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1576.102522773261</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>97.30828653671404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>97.30828653671404</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>721.7790530572493</v>
+        <v>1172.829108994407</v>
       </c>
       <c r="C5" t="n">
-        <v>721.7790530572493</v>
+        <v>1172.829108994407</v>
       </c>
       <c r="D5" t="n">
-        <v>721.7790530572493</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>721.7790530572493</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1498.518225097183</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1108.378893121371</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>371.9203575519559</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>371.9203575519559</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806.0470106353782</v>
+        <v>760.2723052017246</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>760.2723052017246</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>402.0066065949741</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1520.337903526926</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>1146.872145265846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.534970481816</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.982325640618</v>
       </c>
       <c r="S10" t="n">
-        <v>718.2654857545084</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="T10" t="n">
-        <v>718.2654857545084</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="U10" t="n">
-        <v>718.2654857545084</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="V10" t="n">
-        <v>463.5809975486215</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>137.7043515607634</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>137.7043515607634</v>
       </c>
     </row>
     <row r="11">
@@ -5024,22 +5024,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5121,19 +5121,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150548</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715246</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
         <v>2016.139981183168</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V16" t="n">
-        <v>1000.490124917793</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W16" t="n">
-        <v>711.072954880832</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V19" t="n">
-        <v>844.028040127399</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904384</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X19" t="n">
-        <v>554.6108700904384</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.6108700904384</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341675</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.223678370532</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,7 +5911,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488387</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V22" t="n">
-        <v>683.6408484074925</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="W22" t="n">
-        <v>394.223678370532</v>
+        <v>496.6650364395579</v>
       </c>
       <c r="X22" t="n">
-        <v>394.223678370532</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>394.223678370532</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,19 +6148,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1396.390158327728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1107.261519541286</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V25" t="n">
-        <v>852.5770313353995</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W25" t="n">
-        <v>563.1598612984388</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662875</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="C28" t="n">
-        <v>545.6648329070714</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947356</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550795</v>
+        <v>614.6238123952642</v>
       </c>
       <c r="W28" t="n">
-        <v>731.3177283550795</v>
+        <v>325.2066423583034</v>
       </c>
       <c r="X28" t="n">
-        <v>727.3132977373111</v>
+        <v>97.21709146028607</v>
       </c>
       <c r="Y28" t="n">
-        <v>727.3132977373111</v>
+        <v>97.21709146028601</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,7 +6464,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.9720111083027</v>
+        <v>439.5324299542185</v>
       </c>
       <c r="C31" t="n">
-        <v>490.7966934617668</v>
+        <v>395.1164042065991</v>
       </c>
       <c r="D31" t="n">
-        <v>396.4409193308021</v>
+        <v>300.7606300756341</v>
       </c>
       <c r="E31" t="n">
-        <v>304.28869102978</v>
+        <v>300.7606300756341</v>
       </c>
       <c r="F31" t="n">
-        <v>304.28869102978</v>
+        <v>209.6315478590946</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309715</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933505</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667515</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323876</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1499.699937816083</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1300.776314891567</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1067.120010135977</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>894.8913245193306</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>729.8596106571714</v>
+        <v>565.4200295030874</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,67 +6683,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>261.8048459311032</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L36" t="n">
-        <v>921.193690363625</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229671</v>
@@ -7795,13 +7795,13 @@
         <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>180.0237016735874</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>28.12263706262996</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>62.91120742583783</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,28 +10428,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.661214550452</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.1031356539335</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>143.7739809555918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,13 +23464,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>66.58092152751576</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38.92675582439514</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>57.18000134477745</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>39.13749018089541</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>216.0876643102804</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>120.046709950517</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.39383318338672</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>221.7452690774465</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>68.07169897992753</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437396</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571469</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>108.0340895673046</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1051654.326161303</v>
+        <v>1051654.326161302</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855345</v>
@@ -26329,7 +26329,7 @@
         <v>371477.6067508236</v>
       </c>
       <c r="H2" t="n">
-        <v>371477.6067508237</v>
+        <v>371477.6067508236</v>
       </c>
       <c r="I2" t="n">
         <v>371477.6067508237</v>
@@ -26344,16 +26344,16 @@
         <v>389994.8406855348</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855349</v>
       </c>
       <c r="N2" t="n">
+        <v>389994.8406855348</v>
+      </c>
+      <c r="O2" t="n">
+        <v>389994.8406855348</v>
+      </c>
+      <c r="P2" t="n">
         <v>389994.8406855347</v>
-      </c>
-      <c r="O2" t="n">
-        <v>389994.8406855347</v>
-      </c>
-      <c r="P2" t="n">
-        <v>389994.8406855348</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284583</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086664</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284584</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.2921356357</v>
+        <v>33210.29213563563</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275953</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275951</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439607.074843642</v>
+        <v>-439607.0748436421</v>
       </c>
       <c r="C6" t="n">
-        <v>150360.8043709024</v>
+        <v>150360.8043709025</v>
       </c>
       <c r="D6" t="n">
         <v>150360.8043709024</v>
       </c>
       <c r="E6" t="n">
-        <v>-260715.4252962283</v>
+        <v>-260812.8844222006</v>
       </c>
       <c r="F6" t="n">
-        <v>264444.611180668</v>
+        <v>264347.1520546957</v>
       </c>
       <c r="G6" t="n">
-        <v>264444.6111806678</v>
+        <v>264347.1520546957</v>
       </c>
       <c r="H6" t="n">
-        <v>264444.6111806678</v>
+        <v>264347.1520546957</v>
       </c>
       <c r="I6" t="n">
-        <v>264444.6111806681</v>
+        <v>264347.1520546958</v>
       </c>
       <c r="J6" t="n">
-        <v>88021.39198807489</v>
+        <v>87923.93286210272</v>
       </c>
       <c r="K6" t="n">
-        <v>212479.9245093025</v>
+        <v>212461.4307713683</v>
       </c>
       <c r="L6" t="n">
-        <v>244472.3712018832</v>
+        <v>244472.3712018829</v>
       </c>
       <c r="M6" t="n">
-        <v>120014.2627689124</v>
+        <v>120014.2627689126</v>
       </c>
       <c r="N6" t="n">
-        <v>254815.2780027497</v>
+        <v>254815.2780027498</v>
       </c>
       <c r="O6" t="n">
-        <v>254815.2780027497</v>
+        <v>254815.2780027498</v>
       </c>
       <c r="P6" t="n">
         <v>210652.672699904</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010833</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>31.24313505902137</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>19.57541305575751</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.9003285127512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>258.9088560886878</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>143.5000804901054</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>83.42527800234774</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>159.5861133376947</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.9207614155071</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>154.0383522460843</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>96.90822413894236</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>202.3806754826124</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855729</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>490.4480787240536</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>343.3952292757305</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>338.5470141130963</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>213.4866460137771</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36911,10 +36911,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494721</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412283</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043206</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>568.8729598603425</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109088</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>166.2502570412296</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>534.3608406099578</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
